--- a/round1994.xlsx
+++ b/round1994.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5fa5fe2a5bf147a6/Desktop/Green LLM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cheun\Desktop\Green LLM\New folder\Green-LLM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_AD4DA82427541F7ACA7EB8BAF849363E6BE8DE10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD70451-DA9E-4BA1-AD03-A02B369D7E0F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AF32E9-44E0-4370-9AB3-BB7EE54B26A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="3210" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Tasks</t>
   </si>
@@ -50,15 +50,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>All Tasks</t>
-  </si>
-  <si>
     <t>Power of laptop(watt)</t>
   </si>
   <si>
@@ -150,6 +141,30 @@
   </si>
   <si>
     <t>Basic intra understanding</t>
+  </si>
+  <si>
+    <t>CEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>DEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>TEC-TTEC ratio</t>
+  </si>
+  <si>
+    <t>QEC - TTEC ratio</t>
+  </si>
+  <si>
+    <t>ESPI - TTEC ratio</t>
+  </si>
+  <si>
+    <t>ESAF - TTEC ratio</t>
+  </si>
+  <si>
+    <t>Energy Spent on producing the insight(kwh)</t>
+  </si>
+  <si>
+    <t>Energy Spent on adding the missing functionalities(kwh)</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -222,6 +237,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -238,10 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,13 +521,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.5703125" customWidth="1"/>
   </cols>
@@ -533,25 +546,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>748</v>
@@ -562,16 +566,6 @@
       <c r="D2">
         <v>1783</v>
       </c>
-      <c r="E2">
-        <v>1783</v>
-      </c>
-      <c r="F2">
-        <v>1570</v>
-      </c>
-      <c r="G2">
-        <f>SUM(C2:F2)</f>
-        <v>6436</v>
-      </c>
       <c r="L2">
         <v>4.0750000000000002</v>
       </c>
@@ -581,7 +575,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:F3" si="0">$L$2*B2*$N$2</f>
@@ -595,23 +589,14 @@
         <f t="shared" si="0"/>
         <v>2.0182585590500001E-3</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>2.0182585590500001E-3</v>
-      </c>
-      <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>1.7771541994999998E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <f>SUM(B3:F3)</f>
-        <v>8.1318953944000006E-3</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>171.61</v>
@@ -622,20 +607,10 @@
       <c r="D4">
         <v>257.76</v>
       </c>
-      <c r="E4">
-        <v>303.95</v>
-      </c>
-      <c r="F4">
-        <v>838.12</v>
-      </c>
-      <c r="G4">
-        <f>AVERAGE(B4:F4)</f>
-        <v>351.72200000000004</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <f>5253120/1000</f>
@@ -649,22 +624,13 @@
         <f>28464918/1000</f>
         <v>28464.918000000001</v>
       </c>
-      <c r="E5" s="5">
-        <f>4276353/1000</f>
-        <v>4276.3530000000001</v>
-      </c>
-      <c r="F5" s="5">
-        <f>764070956/1000</f>
-        <v>764070.95600000001</v>
-      </c>
-      <c r="G5" s="5">
-        <f>AVERAGE(B5:F5)</f>
-        <v>161802.0864</v>
-      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -675,20 +641,10 @@
       <c r="D6">
         <v>14</v>
       </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <f>AVERAGE(B6:F6)</f>
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -699,20 +655,10 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <f>AVERAGE(B7:F7)</f>
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>1.26</v>
@@ -723,21 +669,12 @@
       <c r="D8">
         <v>2.25</v>
       </c>
-      <c r="E8">
-        <v>2.17</v>
-      </c>
-      <c r="F8">
-        <v>1.79</v>
-      </c>
-      <c r="G8" s="6">
-        <f>AVERAGE(B8:F8)</f>
-        <v>1.7759999999999998</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
         <f>(B6+B7*(B5/(1024*1024)/$L$13))*(B4/1000)*B8*$N$2</f>
@@ -751,22 +688,13 @@
         <f>(D6+D7*(D5/(1024*1024)/$L$13))*(D4/1000)*D8*$N$2</f>
         <v>2.2570417791376426E-6</v>
       </c>
-      <c r="E9" s="2">
-        <f>(E6+E7*(E5/(1024*1024)/$L$13))*(E4/1000)*E8*$N$2</f>
-        <v>2.565282527519507E-6</v>
-      </c>
-      <c r="F9" s="2">
-        <f>(F6+F7*(F5/(1024*1024)/$L$13))*(F4/1000)*F8*$N$2</f>
-        <v>5.9481244699014374E-6</v>
-      </c>
-      <c r="G9" s="2">
-        <f>SUM(B9:F9)</f>
-        <v>1.263794968938157E-5</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
         <f>(B6+B7*(B5/(1024*1024)/$L$13) -$L$2)*B2*$L$28*$L$16*$N$2</f>
@@ -780,22 +708,13 @@
         <f>(D6+D7*(D5/(1024*1024)/$L$13) -$L$2)*D2*$L$28*$L$16*$N$2</f>
         <v>2.0666846480519812E-4</v>
       </c>
-      <c r="E10" s="2">
-        <f>(E6+E7*(E5/(1024*1024)/$L$13) -$L$2)*E2*$L$28*$L$16*$N$2</f>
-        <v>2.0648851974084236E-4</v>
-      </c>
-      <c r="F10" s="2">
-        <f>(F6+F7*(F5/(1024*1024)/$L$13) -$L$2)*F2*$L$28*$L$16*$N$2</f>
-        <v>1.867981514579898E-4</v>
-      </c>
-      <c r="G10" s="2">
-        <f>SUM(B10:F10)</f>
-        <v>8.371507238502066E-4</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="7">
         <f>SUM(B3,B9,B10)</f>
@@ -809,184 +728,143 @@
         <f>SUM(D3,D9,D10)</f>
         <v>2.2271840656343357E-3</v>
       </c>
-      <c r="E11" s="7">
-        <f>SUM(E3,E9,E10)</f>
-        <v>2.2273123613183619E-3</v>
-      </c>
-      <c r="F11" s="7">
-        <f>SUM(F3,F9,F10)</f>
-        <v>1.9699004754278912E-3</v>
-      </c>
-      <c r="G11" s="7">
-        <f>SUM(B11:F11)</f>
-        <v>8.9816840679395882E-3</v>
-      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <f>$L$25*B11</f>
-        <v>0.20271375177843817</v>
-      </c>
-      <c r="C12" s="4">
-        <f>$L$25*C11</f>
-        <v>0.35221756314786468</v>
-      </c>
-      <c r="D12" s="4">
-        <f>$L$25*D11</f>
-        <v>0.48329894224265085</v>
-      </c>
-      <c r="E12" s="4">
-        <f>$L$25*E11</f>
-        <v>0.48332678240608451</v>
-      </c>
-      <c r="F12" s="4">
-        <f>$L$25*F11</f>
-        <v>0.4274684031678524</v>
-      </c>
-      <c r="G12" s="8">
-        <f>SUM(B12:F12)</f>
-        <v>1.9490254427428906</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B12" s="12">
+        <f>B3/B11</f>
+        <v>0.90636594616144284</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" ref="C12:E12" si="1">C3/C11</f>
+        <v>0.90660380584413203</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.90619297712834945</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="8"/>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="12">
+        <f>B10/B11</f>
+        <v>9.273378168896422E-2</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" ref="C13:E13" si="2">C10/C11</f>
+        <v>9.2763772106762357E-2</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="2"/>
+        <v>9.2793616833970929E-2</v>
+      </c>
+      <c r="E13" s="12"/>
       <c r="H13" s="2"/>
       <c r="L13">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12">
+        <f>B9/B11</f>
+        <v>9.0027214959285929E-4</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" ref="C14:E14" si="3">C9/C11</f>
+        <v>6.3242204910567222E-4</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0134060376796037E-3</v>
+      </c>
+      <c r="E14" s="12"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>$L$25*B11</f>
+        <v>0.20271375177843817</v>
+      </c>
+      <c r="C15" s="4">
+        <f>$L$25*C11</f>
+        <v>0.35221756314786468</v>
+      </c>
+      <c r="D15" s="4">
+        <f>$L$25*D11</f>
+        <v>0.48329894224265085</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
       <c r="H16" s="8"/>
       <c r="L16" s="9">
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1.67</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f>SUM(B17:F17)</f>
-        <v>16.670000000000002</v>
-      </c>
-    </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0</v>
-      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <f>AVERAGE(B18:F18)</f>
-        <v>0.25</v>
-      </c>
+      <c r="G18" s="10"/>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>2.33</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
         <v>3</v>
       </c>
-      <c r="G19">
-        <f>SUM(B19:F19)</f>
-        <v>6.33</v>
-      </c>
+      <c r="E19" s="11"/>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.33</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1.67</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <f>AVERAGE(B20:F20)</f>
-        <v>0.58250000000000002</v>
-      </c>
+      <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="J20" s="2"/>
       <c r="L20">
@@ -995,63 +873,39 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <f>(B17+B19)*$L$20</f>
-        <v>1.8369999999999997E-2</v>
-      </c>
-      <c r="C21" s="8">
-        <f>(C17+C19)*$L$20</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="D21">
-        <f>(D17+D19)*$L$20</f>
-        <v>8.0629999999999993E-2</v>
-      </c>
-      <c r="E21" s="8">
-        <f>(E17+E19)*$L$20</f>
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="1">(F17+F19)*$L$20</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" ref="G21:G26" si="2">SUM(B21:F21)</f>
-        <v>0.253</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="5">
-        <f>C2*$L$36*(1-C18)</f>
-        <v>494</v>
-      </c>
-      <c r="D22" s="5">
-        <f>D2*$L$36*(1-D18)</f>
-        <v>677.54</v>
-      </c>
-      <c r="E22" s="5">
-        <f>E2*$L$36*(1-E18)</f>
-        <v>677.54</v>
-      </c>
-      <c r="F22" s="5">
-        <f>F2*$L$36*(1-F18)</f>
-        <v>596.6</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="2"/>
-        <v>2445.6799999999998</v>
-      </c>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2.33</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
       <c r="H22" s="10"/>
       <c r="L22">
         <v>50</v>
@@ -1059,92 +913,63 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
-        <f>($L$32+$L$34)*(D2*$L$28)</f>
-        <v>299.54400000000004</v>
-      </c>
-      <c r="E23" s="5">
-        <f>($L$32+$L$34)*(E2*$L$28)</f>
-        <v>299.54400000000004</v>
-      </c>
-      <c r="F23" s="5">
-        <f>($L$32+$L$34)*(F2*$L$28)</f>
-        <v>263.76</v>
-      </c>
-      <c r="G23" s="5">
-        <f t="shared" si="2"/>
-        <v>862.84800000000007</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <f>(1-B20)*B2+B23</f>
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <f>(1-C20)*C2+C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <f>(1-D20)*D2+D23 - D22</f>
-        <v>816.61400000000003</v>
-      </c>
-      <c r="E24" s="5">
-        <f>(1-E20)*E2+E23 - E22</f>
-        <v>1405.0039999999999</v>
-      </c>
-      <c r="F24" s="5">
-        <f>(1-F20)*F2+F23 - F22</f>
-        <v>1237.1599999999999</v>
-      </c>
-      <c r="G24" s="5">
-        <f t="shared" si="2"/>
-        <v>3458.7779999999998</v>
-      </c>
+        <f>(B20+B22)*$L$20</f>
+        <v>1.8369999999999997E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <f>(C20+C22)*$L$20</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D24">
+        <f>(D20+D22)*$L$20</f>
+        <v>8.0629999999999993E-2</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <f>B21+(B22+B24)*$L$2*$N$2</f>
-        <v>1.8369999999999997E-2</v>
-      </c>
-      <c r="C25" s="4">
-        <f>C21+(C22+C24)*$L$2*$N$2</f>
-        <v>6.6559181002900009E-2</v>
-      </c>
-      <c r="D25" s="4">
-        <f>D21+(D22+D24)*$L$2*$N$2</f>
-        <v>8.2321300672483888E-2</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ref="E25:F25" si="3">E21+(E22+E24)*$L$2*$N$2</f>
-        <v>9.0357325996970397E-2</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" si="3"/>
-        <v>2.0757161050159998E-3</v>
-      </c>
-      <c r="G25" s="4">
-        <f t="shared" si="2"/>
-        <v>0.25968352377737031</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <f>C2*$L$36*(1-C21)</f>
+        <v>494</v>
+      </c>
+      <c r="D25" s="5">
+        <f>D2*$L$36*(1-D21)</f>
+        <v>677.54</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="5"/>
       <c r="L25">
         <v>217</v>
@@ -1152,72 +977,187 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <f>B25*$L$25</f>
-        <v>3.9862899999999994</v>
-      </c>
-      <c r="C26" s="8">
-        <f t="shared" ref="C26:F26" si="4">C25*$L$25</f>
-        <v>14.443342277629302</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="4"/>
-        <v>17.863722245929004</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="4"/>
-        <v>19.607539741342578</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="4"/>
-        <v>0.45043039478847197</v>
-      </c>
-      <c r="G26" s="11">
-        <f t="shared" si="2"/>
-        <v>56.351324659689354</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <f>($L$32+$L$34)*(D2*$L$28)</f>
+        <v>299.54400000000004</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <f>(1-B23)*B2+B26</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>(1-C23)*C2+C26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <f>(1-D23)*D2+D26 - D25</f>
+        <v>816.61400000000003</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <f>B25*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28:E28" si="4">C25*$L$2*$N$2</f>
+        <v>5.5918100290000008E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D25*$L$2*$N$2</f>
+        <v>7.6693825243899993E-4</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="H28" s="8"/>
       <c r="L28" s="9">
         <v>0.42</v>
       </c>
     </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="2">
+        <f>B27*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" ref="C29:E29" si="5">C27*$L$2*$N$2</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="5"/>
+        <v>9.2436242004490009E-4</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="12">
+        <f>B24/B33</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:D30" si="6">C24/C33</f>
+        <v>0.99159873973095247</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" si="6"/>
+        <v>0.97945488398910563</v>
+      </c>
+    </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12">
+        <f>B28/B33</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C28/C33</f>
+        <v>8.4012602690474256E-3</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D28/D33</f>
+        <v>9.3164010550595092E-3</v>
+      </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12">
+        <f>B29/B33</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:D32" si="7">C29/C33</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="7"/>
+        <v>1.1228714955834884E-2</v>
+      </c>
       <c r="L32" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <f>B24+(B25+B27)*$L$2*$N$2</f>
+        <v>1.8369999999999997E-2</v>
+      </c>
+      <c r="C33" s="4">
+        <f>C24+(C25+C27)*$L$2*$N$2</f>
+        <v>6.6559181002900009E-2</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D24+(D25+D27)*$L$2*$N$2</f>
+        <v>8.2321300672483888E-2</v>
+      </c>
       <c r="L33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <f>B33*$L$25</f>
+        <v>3.9862899999999994</v>
+      </c>
+      <c r="C34" s="8">
+        <f>C33*$L$25</f>
+        <v>14.443342277629302</v>
+      </c>
+      <c r="D34" s="8">
+        <f>D33*$L$25</f>
+        <v>17.863722245929004</v>
+      </c>
       <c r="L34" s="10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L36" s="10">
         <v>0.38</v>
       </c>
